--- a/src/main/resources/SGMTestUserData.xlsx
+++ b/src/main/resources/SGMTestUserData.xlsx
@@ -395,7 +395,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
